--- a/cenarios_teste.xlsx
+++ b/cenarios_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4960020859\Desktop\zephyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420FA225-8A57-4F3A-B69A-2F7AF3392A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9AE3C-F58B-4663-8E66-2DC1352DC0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>projectKey</t>
   </si>
@@ -49,21 +49,9 @@
     <t>labels</t>
   </si>
   <si>
-    <t>ADEC</t>
-  </si>
-  <si>
-    <t>Login com credenciais válidas</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Validar Login</t>
-  </si>
-  <si>
-    <t>possuir um usuário válido</t>
-  </si>
-  <si>
     <t>j-compra-self-service,s-checkout-app,t-comprar</t>
   </si>
   <si>
@@ -76,28 +64,22 @@
     <t>Given o usuário está na página de login\n When ele insere credenciais válidas\n Then ele é redirecionado para o painel principal</t>
   </si>
   <si>
-    <t xml:space="preserve">Given o usuário está na página de login\n When ele insere credenciais válidas\n Then ele é redirecionado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given o usuário está na página de login\n When ele insere credenciais válidas\n Then ele </t>
-  </si>
-  <si>
-    <t>possuir um  válido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possuir um usuário </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar </t>
-  </si>
-  <si>
-    <t>Validar Log</t>
-  </si>
-  <si>
-    <t>Login com  válidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login com credenciais </t>
+    <t>nome do projeto</t>
+  </si>
+  <si>
+    <t>Nome do cenários de teste</t>
+  </si>
+  <si>
+    <t>Id da pasta de teste</t>
+  </si>
+  <si>
+    <t>Insira o objetivo do cenario</t>
+  </si>
+  <si>
+    <t>pré-condição do cenario</t>
+  </si>
+  <si>
+    <t>compoente</t>
   </si>
 </sst>
 </file>
@@ -493,7 +475,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,104 +519,46 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>11976985</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>10302</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="108" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>11976985</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>10302</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>11976985</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>10302</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cenarios_teste.xlsx
+++ b/cenarios_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4960020859\Desktop\zephyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9AE3C-F58B-4663-8E66-2DC1352DC0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF9C34-CEC5-4579-B751-C2B4D4E72CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>projectKey</t>
   </si>
@@ -49,44 +49,40 @@
     <t>labels</t>
   </si>
   <si>
-    <t>Medium</t>
+    <t>bdd</t>
+  </si>
+  <si>
+    <t>ADEC</t>
+  </si>
+  <si>
+    <t>Exibir banners na tela de forma de pagamento</t>
+  </si>
+  <si>
+    <t>Validar que dois banners são exibidos corretamente na tela de forma de pagamento</t>
+  </si>
+  <si>
+    <t>Feature flag EnableEndemicBanner ativada e API retorna campanhas válidas</t>
   </si>
   <si>
     <t>j-compra-self-service,s-checkout-app,t-comprar</t>
   </si>
   <si>
-    <t>bdd</t>
+    <t>Given o usuário acessa a tela de forma de pagamento
+When a API retorna campanhas válidas
+Then dois banners são exibidos na tela</t>
   </si>
   <si>
     <t>manual</t>
   </si>
   <si>
-    <t>Given o usuário está na página de login\n When ele insere credenciais válidas\n Then ele é redirecionado para o painel principal</t>
-  </si>
-  <si>
-    <t>nome do projeto</t>
-  </si>
-  <si>
-    <t>Nome do cenários de teste</t>
-  </si>
-  <si>
-    <t>Id da pasta de teste</t>
-  </si>
-  <si>
-    <t>Insira o objetivo do cenario</t>
-  </si>
-  <si>
-    <t>pré-condição do cenario</t>
-  </si>
-  <si>
-    <t>compoente</t>
+    <t>medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +98,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,33 +130,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,23 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -518,50 +479,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="132" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>11976985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>10303</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cenarios_teste.xlsx
+++ b/cenarios_teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4960020859\Desktop\zephyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF9C34-CEC5-4579-B751-C2B4D4E72CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0679CF8-54E6-4829-A507-EA24281C695B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>projectKey</t>
   </si>
@@ -50,21 +50,6 @@
   </si>
   <si>
     <t>bdd</t>
-  </si>
-  <si>
-    <t>ADEC</t>
-  </si>
-  <si>
-    <t>Exibir banners na tela de forma de pagamento</t>
-  </si>
-  <si>
-    <t>Validar que dois banners são exibidos corretamente na tela de forma de pagamento</t>
-  </si>
-  <si>
-    <t>Feature flag EnableEndemicBanner ativada e API retorna campanhas válidas</t>
-  </si>
-  <si>
-    <t>j-compra-self-service,s-checkout-app,t-comprar</t>
   </si>
   <si>
     <t>Given o usuário acessa a tela de forma de pagamento
@@ -72,10 +57,31 @@
 Then dois banners são exibidos na tela</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>medium</t>
+    <t>pegar no jira</t>
+  </si>
+  <si>
+    <t>nome do caso de teste</t>
+  </si>
+  <si>
+    <t>id da pasta pegar no zephyr</t>
+  </si>
+  <si>
+    <t>status pegar no zephyr</t>
+  </si>
+  <si>
+    <t>prioridade pegar no zephyr</t>
+  </si>
+  <si>
+    <t>Objetivo do seu teste</t>
+  </si>
+  <si>
+    <t>pré-condições se houver</t>
+  </si>
+  <si>
+    <t>componentId pegar no zephyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insira as labels </t>
   </si>
 </sst>
 </file>
@@ -445,11 +451,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -485,34 +500,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>11976985</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>10303</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
